--- a/final_data/query_db/my_fund_raw.xlsx
+++ b/final_data/query_db/my_fund_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_codes\investment\final_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_codes\investment\final_data\query_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F078028-055F-4AAE-9048-75DD26E569BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D2BCF-17EA-478A-9A9A-D4A925AA26C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="330" windowWidth="26505" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sel" sheetId="3" r:id="rId1"/>
@@ -21,19 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="294">
   <si>
     <t>166020</t>
   </si>
@@ -812,6 +805,114 @@
   </si>
   <si>
     <t>160618</t>
+  </si>
+  <si>
+    <t>国富恒瑞债券A</t>
+  </si>
+  <si>
+    <t>万家新兴蓝筹灵活配置混合</t>
+  </si>
+  <si>
+    <t>万家品质生活混合A</t>
+  </si>
+  <si>
+    <t>西部利得成长精选混合</t>
+  </si>
+  <si>
+    <t>博时裕隆灵活配置混合A</t>
+  </si>
+  <si>
+    <t>002361国富恒瑞债券A</t>
+  </si>
+  <si>
+    <t>519196万家新兴蓝筹灵活配置混合</t>
+  </si>
+  <si>
+    <t>519195万家品质生活混合A</t>
+  </si>
+  <si>
+    <t>673020西部利得成长精选混合</t>
+  </si>
+  <si>
+    <t>000652博时裕隆灵活配置混合A</t>
+  </si>
+  <si>
+    <t>001990中欧数据挖掘多因子混合A</t>
+  </si>
+  <si>
+    <t>501087交银瑞丰混合(LOF)</t>
+  </si>
+  <si>
+    <t>501071泓德丰泽混合(LOF)</t>
+  </si>
+  <si>
+    <t>501022银华鑫盛灵活配置混合(L</t>
+  </si>
+  <si>
+    <t>000171易方达裕丰回报债券A</t>
+  </si>
+  <si>
+    <t>163001长信医疗保健混合(LOF</t>
+  </si>
+  <si>
+    <t>515950富国中证医药50ETF</t>
+  </si>
+  <si>
+    <t>561310国泰中证消费电子主题ET</t>
+  </si>
+  <si>
+    <t>512520华泰MSCI中国A股国际</t>
+  </si>
+  <si>
+    <t>raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501022</t>
+  </si>
+  <si>
+    <t>银华鑫盛灵活配置混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002361</t>
+  </si>
+  <si>
+    <t>519196</t>
+  </si>
+  <si>
+    <t>519195</t>
+  </si>
+  <si>
+    <t>673020</t>
+  </si>
+  <si>
+    <t>000652</t>
+  </si>
+  <si>
+    <t>163001</t>
+  </si>
+  <si>
+    <t>515950</t>
+  </si>
+  <si>
+    <t>富国中证医药50ETF</t>
+  </si>
+  <si>
+    <t>561310</t>
+  </si>
+  <si>
+    <t>国泰中证消费电子主题ET</t>
+  </si>
+  <si>
+    <t>512520</t>
+  </si>
+  <si>
+    <t>华泰MSCI中国A股国际</t>
+  </si>
+  <si>
+    <t>长信医疗保健混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1204,19 +1305,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D857D398-D0B3-40C7-B0D8-18E05D0C5AEB}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>249</v>
       </c>
@@ -1224,7 +1325,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1240,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +1437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1344,7 +1445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1360,7 +1461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1376,7 +1477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1392,7 +1493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1400,7 +1501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1408,7 +1509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1416,7 +1517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1424,7 +1525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1432,7 +1533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1440,7 +1541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1448,7 +1549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1456,7 +1557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1464,7 +1565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1472,7 +1573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1480,7 +1581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1488,7 +1589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1496,7 +1597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -1504,7 +1605,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1512,7 +1613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1520,7 +1621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1528,7 +1629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1536,7 +1637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1544,7 +1645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1552,7 +1653,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1560,7 +1661,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -1568,7 +1669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1576,7 +1677,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -1584,7 +1685,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -1592,7 +1693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -1600,7 +1701,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -1608,7 +1709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -1616,7 +1717,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -1624,7 +1725,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -1632,7 +1733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -1640,7 +1741,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -1648,7 +1749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -1656,7 +1757,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -1664,7 +1765,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -1672,7 +1773,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -1680,7 +1781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -1688,7 +1789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -1696,7 +1797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -1704,7 +1805,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -1712,7 +1813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -1720,7 +1821,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -1728,7 +1829,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>253</v>
       </c>
@@ -1736,7 +1837,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -1744,7 +1845,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>255</v>
       </c>
@@ -1752,7 +1853,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>256</v>
       </c>
@@ -1760,7 +1861,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>258</v>
       </c>
@@ -1768,7 +1869,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -1776,7 +1877,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -1784,7 +1885,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -1792,7 +1893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -1800,7 +1901,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -1808,7 +1909,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -1816,7 +1917,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -1824,7 +1925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>142</v>
       </c>
@@ -1832,7 +1933,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -1840,7 +1941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>146</v>
       </c>
@@ -1848,7 +1949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -1856,7 +1957,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -1864,7 +1965,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -1872,7 +1973,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>154</v>
       </c>
@@ -1880,7 +1981,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -1888,7 +1989,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -1896,12 +1997,92 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>160</v>
       </c>
       <c r="B86" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>281</v>
+      </c>
+      <c r="B88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>291</v>
+      </c>
+      <c r="B96" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1912,53 +2093,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection sqref="A1:B86"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B98" sqref="A89:B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>250</v>
       </c>
       <c r="B1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>LEFT(H2,6)</f>
+        <f>LEFT(C2,6)</f>
         <v>166020</v>
       </c>
       <c r="B2" t="str">
-        <f>RIGHT(H2,LEN(H2)-6)</f>
+        <f>RIGHT(C2,LEN(C2)-6)</f>
         <v>中欧成长优选混合A</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>LEFT(G2,6)</f>
+        <v>002361</v>
+      </c>
+      <c r="F2" t="str">
+        <f>RIGHT(G2,LEN(G2)-6)</f>
+        <v>国富恒瑞债券A</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" t="e">
+        <f>VLOOKUP(E2,A$2:B$86,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">LEFT(H3,6)</f>
+        <f t="shared" ref="A3:A66" si="0">LEFT(C3,6)</f>
         <v>166019</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="1">RIGHT(H3,LEN(H3)-6)</f>
+        <f t="shared" ref="B3:B66" si="1">RIGHT(C3,LEN(C3)-6)</f>
         <v>中欧价值智选混合A</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E63" si="2">LEFT(G3,6)</f>
+        <v>519196</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F63" si="3">RIGHT(G3,LEN(G3)-6)</f>
+        <v>万家新兴蓝筹灵活配置混合</v>
+      </c>
+      <c r="G3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H63" si="4">VLOOKUP(E3,A$2:B$86,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>166009</v>
@@ -1967,11 +2194,26 @@
         <f t="shared" si="1"/>
         <v>中欧新动力混合(LOF)</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>519195</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>万家品质生活混合A</v>
+      </c>
+      <c r="G4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>001955</v>
@@ -1980,11 +2222,26 @@
         <f t="shared" si="1"/>
         <v>中欧养老产业混合A</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>673020</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>西部利得成长精选混合</v>
+      </c>
+      <c r="G5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>001990</v>
@@ -1993,11 +2250,26 @@
         <f t="shared" si="1"/>
         <v>中欧数据挖掘混合A</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>000652</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>博时裕隆灵活配置混合A</v>
+      </c>
+      <c r="G6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>166006</v>
@@ -2006,11 +2278,26 @@
         <f t="shared" si="1"/>
         <v>中欧行业成长混合(LOF</v>
       </c>
-      <c r="H7" t="s">
+      <c r="C7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>001955</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>中欧养老产业混合A</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v>中欧养老产业混合A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>166002</v>
@@ -2019,11 +2306,26 @@
         <f t="shared" si="1"/>
         <v>中欧新蓝筹混合A</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>001990</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>中欧数据挖掘多因子混合A</v>
+      </c>
+      <c r="G8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v>中欧数据挖掘混合A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>166001</v>
@@ -2032,11 +2334,26 @@
         <f t="shared" si="1"/>
         <v>中欧新趋势混合A</v>
       </c>
-      <c r="H9" t="s">
+      <c r="C9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>166006</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>中欧行业成长混合(LOF</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v>中欧行业成长混合(LOF</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>001117</v>
@@ -2045,11 +2362,26 @@
         <f t="shared" si="1"/>
         <v>中欧精选定期开放混合A</v>
       </c>
-      <c r="H10" t="s">
+      <c r="C10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>166001</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>中欧新趋势混合A</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v>中欧新趋势混合A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>166024</v>
@@ -2058,11 +2390,26 @@
         <f t="shared" si="1"/>
         <v>中欧恒利三年定期开放混合</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>166024</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v>中欧恒利三年定期开放混合</v>
+      </c>
+      <c r="G11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v>中欧恒利三年定期开放混合</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>166005</v>
@@ -2071,11 +2418,26 @@
         <f t="shared" si="1"/>
         <v>中欧价值发现混合A</v>
       </c>
-      <c r="H12" t="s">
+      <c r="C12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>166005</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v>中欧价值发现混合A</v>
+      </c>
+      <c r="G12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>中欧价值发现混合A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>162703</v>
@@ -2084,11 +2446,26 @@
         <f t="shared" si="1"/>
         <v>广发小盘成长混合(LOF</v>
       </c>
-      <c r="H13" t="s">
+      <c r="C13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>162703</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v>广发小盘成长混合(LOF</v>
+      </c>
+      <c r="G13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v>广发小盘成长混合(LOF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>005233</v>
@@ -2097,11 +2474,26 @@
         <f t="shared" si="1"/>
         <v>广发睿毅领先混合A</v>
       </c>
-      <c r="H14" t="s">
+      <c r="C14" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>001763</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v>广发多策略混合</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>广发多策略混合</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>001763</v>
@@ -2110,11 +2502,26 @@
         <f t="shared" si="1"/>
         <v>广发多策略混合</v>
       </c>
-      <c r="H15" t="s">
+      <c r="C15" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>000747</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>广发逆向策略混合A</v>
+      </c>
+      <c r="G15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>广发逆向策略混合A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>002624</v>
@@ -2123,11 +2530,26 @@
         <f t="shared" si="1"/>
         <v>广发优企精选混合A</v>
       </c>
-      <c r="H16" t="s">
+      <c r="C16" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>501087</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>交银瑞丰混合(LOF)</v>
+      </c>
+      <c r="G16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>交银瑞丰三年封闭混合</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>000747</v>
@@ -2136,11 +2558,26 @@
         <f t="shared" si="1"/>
         <v>广发逆向策略混合A</v>
       </c>
-      <c r="H17" t="s">
+      <c r="C17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>161912</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>万家社会责任18个月定开</v>
+      </c>
+      <c r="G17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="4"/>
+        <v>万家社会责任18个月定开</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>519688</v>
@@ -2149,11 +2586,26 @@
         <f t="shared" si="1"/>
         <v>交银精选混合</v>
       </c>
-      <c r="H18" t="s">
+      <c r="C18" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>161005</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>富国天惠成长混合A/B(</v>
+      </c>
+      <c r="G18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="4"/>
+        <v>富国天惠成长混合A/B(</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>519736</v>
@@ -2162,11 +2614,26 @@
         <f t="shared" si="1"/>
         <v>交银新成长混合</v>
       </c>
-      <c r="H19" t="s">
+      <c r="C19" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>167508</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>安信价值发现两年定开混合</v>
+      </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="4"/>
+        <v>安信价值发现两年定开混合</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>501087</v>
@@ -2175,11 +2642,26 @@
         <f t="shared" si="1"/>
         <v>交银瑞丰三年封闭混合</v>
       </c>
-      <c r="H20" t="s">
+      <c r="C20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>501071</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>泓德丰泽混合(LOF)</v>
+      </c>
+      <c r="G20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="4"/>
+        <v>泓德三年封闭丰泽混合</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>519697</v>
@@ -2188,11 +2670,26 @@
         <f t="shared" si="1"/>
         <v>交银优势行业混合</v>
       </c>
-      <c r="H21" t="s">
+      <c r="C21" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>000362</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>国泰聚信价值优势混合A</v>
+      </c>
+      <c r="G21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="4"/>
+        <v>国泰聚信价值优势混合A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>161912</v>
@@ -2201,11 +2698,26 @@
         <f t="shared" si="1"/>
         <v>万家社会责任18个月定开</v>
       </c>
-      <c r="H22" t="s">
+      <c r="C22" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>020018</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>国泰金鹿混合</v>
+      </c>
+      <c r="G22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="4"/>
+        <v>国泰金鹿混合</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>167508</v>
@@ -2214,11 +2726,26 @@
         <f t="shared" si="1"/>
         <v>安信价值发现两年定开混合</v>
       </c>
-      <c r="H23" t="s">
+      <c r="C23" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>501022</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>银华鑫盛灵活配置混合(L</v>
+      </c>
+      <c r="G23" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>001500</v>
@@ -2227,11 +2754,26 @@
         <f t="shared" si="1"/>
         <v>泓德远见回报混合</v>
       </c>
-      <c r="H24" t="s">
+      <c r="C24" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>002307</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>银华多元视野灵活配置混合</v>
+      </c>
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="4"/>
+        <v>银华多元视野灵活配置混合</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>501071</v>
@@ -2240,11 +2782,26 @@
         <f t="shared" si="1"/>
         <v>泓德三年封闭丰泽混合</v>
       </c>
-      <c r="H25" t="s">
+      <c r="C25" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>006058</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v>民生加银新兴成长混合</v>
+      </c>
+      <c r="G25" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="4"/>
+        <v>民生加银新兴成长混合</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>006259</v>
@@ -2253,11 +2810,26 @@
         <f t="shared" si="1"/>
         <v>汇添富红利增长混合A</v>
       </c>
-      <c r="H26" t="s">
+      <c r="C26" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>450011</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v>国富研究精选混合</v>
+      </c>
+      <c r="G26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="4"/>
+        <v>国富研究精选混合</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>519069</v>
@@ -2266,11 +2838,26 @@
         <f t="shared" si="1"/>
         <v>汇添富价值精选混合A</v>
       </c>
-      <c r="H27" t="s">
+      <c r="C27" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>450009</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v>国富中小盘股票</v>
+      </c>
+      <c r="G27" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="4"/>
+        <v>国富中小盘股票</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>161005</v>
@@ -2279,11 +2866,26 @@
         <f t="shared" si="1"/>
         <v>富国天惠成长混合A/B(</v>
       </c>
-      <c r="H28" t="s">
+      <c r="C28" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>002628</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v>招商安博灵活配置混合A</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="4"/>
+        <v>招商安博灵活配置混合A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>100039</v>
@@ -2292,11 +2894,26 @@
         <f t="shared" si="1"/>
         <v>富国通胀通缩主题轮动混合</v>
       </c>
-      <c r="H29" t="s">
+      <c r="C29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>003165</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v>鹏华弘嘉混合A类</v>
+      </c>
+      <c r="G29" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="4"/>
+        <v>鹏华弘嘉混合A类</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>000362</v>
@@ -2305,11 +2922,26 @@
         <f t="shared" si="1"/>
         <v>国泰聚信价值优势混合A</v>
       </c>
-      <c r="H30" t="s">
+      <c r="C30" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>240022</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>华宝资源优选混合A</v>
+      </c>
+      <c r="G30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="4"/>
+        <v>华宝资源优选混合A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>020018</v>
@@ -2318,11 +2950,26 @@
         <f t="shared" si="1"/>
         <v>国泰金鹿混合</v>
       </c>
-      <c r="H31" t="s">
+      <c r="C31" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>160133</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>南方天元新产业股票(LO</v>
+      </c>
+      <c r="G31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="4"/>
+        <v>南方天元新产业股票(LO</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>003940</v>
@@ -2331,11 +2978,26 @@
         <f t="shared" si="1"/>
         <v>银华盛世精选灵活配置混合</v>
       </c>
-      <c r="H32" t="s">
+      <c r="C32" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>162605</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>景顺长城鼎益混合(LOF</v>
+      </c>
+      <c r="G32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="4"/>
+        <v>景顺长城鼎益混合(LOF</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>180031</v>
@@ -2344,11 +3006,26 @@
         <f t="shared" si="1"/>
         <v>银华中小盘混合</v>
       </c>
-      <c r="H33" t="s">
+      <c r="C33" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>001651</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v>工银新蓝筹股票A</v>
+      </c>
+      <c r="G33" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="4"/>
+        <v>工银新蓝筹股票A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>002307</v>
@@ -2357,11 +3034,26 @@
         <f t="shared" si="1"/>
         <v>银华多元视野灵活配置混合</v>
       </c>
-      <c r="H34" t="s">
+      <c r="C34" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>501046</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v>财通多策略福鑫定开混合</v>
+      </c>
+      <c r="G34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="4"/>
+        <v>财通多策略福鑫定开混合</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>450011</v>
@@ -2370,11 +3062,26 @@
         <f t="shared" si="1"/>
         <v>国富研究精选混合</v>
       </c>
-      <c r="H35" t="s">
+      <c r="C35" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>007802</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v>兴全合泰混合A</v>
+      </c>
+      <c r="G35" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="4"/>
+        <v>兴全合泰混合A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>450001</v>
@@ -2383,11 +3090,26 @@
         <f t="shared" si="1"/>
         <v>国富中国收益混合</v>
       </c>
-      <c r="H36" t="s">
+      <c r="C36" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>163406</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v>兴全合润混合(LOF)</v>
+      </c>
+      <c r="G36" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="4"/>
+        <v>兴全合润混合(LOF)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>450009</v>
@@ -2396,11 +3118,26 @@
         <f t="shared" si="1"/>
         <v>国富中小盘股票</v>
       </c>
-      <c r="H37" t="s">
+      <c r="C37" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>163412</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v>兴全轻资产混合(LOF)</v>
+      </c>
+      <c r="G37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="4"/>
+        <v>兴全轻资产混合(LOF)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>002628</v>
@@ -2409,11 +3146,26 @@
         <f t="shared" si="1"/>
         <v>招商安博灵活配置混合A</v>
       </c>
-      <c r="H38" t="s">
+      <c r="C38" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>001603</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v>易方达安盈回报混合</v>
+      </c>
+      <c r="G38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="4"/>
+        <v>易方达安盈回报混合</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>003165</v>
@@ -2422,11 +3174,26 @@
         <f t="shared" si="1"/>
         <v>鹏华弘嘉混合A类</v>
       </c>
-      <c r="H39" t="s">
+      <c r="C39" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>501053</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v>东方红目标优选定开混合</v>
+      </c>
+      <c r="G39" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="4"/>
+        <v>东方红目标优选定开混合</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>160919</v>
@@ -2435,11 +3202,26 @@
         <f t="shared" si="1"/>
         <v>大成产业升级股票(LOF</v>
       </c>
-      <c r="H40" t="s">
+      <c r="C40" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>169106</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v>东方红创新优选定开混合</v>
+      </c>
+      <c r="G40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="4"/>
+        <v>东方红创新优选定开混合</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>240022</v>
@@ -2448,11 +3230,26 @@
         <f t="shared" si="1"/>
         <v>华宝资源优选混合A</v>
       </c>
-      <c r="H41" t="s">
+      <c r="C41" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>000171</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v>易方达裕丰回报债券A</v>
+      </c>
+      <c r="G41" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="4"/>
+        <v>易方达裕丰回报债券</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>162605</v>
@@ -2461,11 +3258,26 @@
         <f t="shared" si="1"/>
         <v>景顺长城鼎益混合(LOF</v>
       </c>
-      <c r="H42" t="s">
+      <c r="C42" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>161115</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v>易方达岁丰添利债券(LO</v>
+      </c>
+      <c r="G42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="4"/>
+        <v>易方达岁丰添利债券(LO</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>202023</v>
@@ -2474,11 +3286,26 @@
         <f t="shared" si="1"/>
         <v>南方优选成长混合A</v>
       </c>
-      <c r="H43" t="s">
+      <c r="C43" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>161015</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v>富国天盈债券(LOF)C</v>
+      </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="4"/>
+        <v>富国天盈债券(LOF)C</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>160133</v>
@@ -2487,11 +3314,26 @@
         <f t="shared" si="1"/>
         <v>南方天元新产业股票(LO</v>
       </c>
-      <c r="H44" t="s">
+      <c r="C44" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>161014</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v>富国汇利回报两年定期开放</v>
+      </c>
+      <c r="G44" t="s">
+        <v>230</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="4"/>
+        <v>富国汇利回报两年定期开放</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>501189</v>
@@ -2500,11 +3342,26 @@
         <f t="shared" si="1"/>
         <v>嘉实产业优选混合(LOF</v>
       </c>
-      <c r="H45" t="s">
+      <c r="C45" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>160618</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v>鹏华丰泽债券(LOF)</v>
+      </c>
+      <c r="G45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="4"/>
+        <v>鹏华丰泽债券(LOF)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>005267</v>
@@ -2513,11 +3370,26 @@
         <f t="shared" si="1"/>
         <v>嘉实价值精选股票</v>
       </c>
-      <c r="H46" t="s">
+      <c r="C46" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>161911</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v>万家强化收益定开债</v>
+      </c>
+      <c r="G46" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="4"/>
+        <v>万家强化收益定开债</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>000136</v>
@@ -2526,11 +3398,26 @@
         <f t="shared" si="1"/>
         <v>民生加银策略精选混合A</v>
       </c>
-      <c r="H47" t="s">
+      <c r="C47" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>008383</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v>招商安心收益债券A</v>
+      </c>
+      <c r="G47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="4"/>
+        <v>招商安心收益债券A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>006058</v>
@@ -2539,11 +3426,26 @@
         <f t="shared" si="1"/>
         <v>民生加银新兴成长混合</v>
       </c>
-      <c r="H48" t="s">
+      <c r="C48" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>217022</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v>招商产业债券A</v>
+      </c>
+      <c r="G48" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="4"/>
+        <v>招商产业债券A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>040035</v>
@@ -2552,11 +3454,26 @@
         <f t="shared" si="1"/>
         <v>华安逆向策略混合A</v>
       </c>
-      <c r="H49" t="s">
+      <c r="C49" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>161716</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v>招商双债增强债券(LOF</v>
+      </c>
+      <c r="G49" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v>招商双债增强债券(LOF</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>001651</v>
@@ -2565,11 +3482,26 @@
         <f t="shared" si="1"/>
         <v>工银新蓝筹股票A</v>
       </c>
-      <c r="H50" t="s">
+      <c r="C50" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>007916</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v>财通资管鸿福短债C</v>
+      </c>
+      <c r="G50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="4"/>
+        <v>财通资管鸿福短债C</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>501046</v>
@@ -2578,11 +3510,26 @@
         <f t="shared" si="1"/>
         <v>财通多策略福鑫定开混合</v>
       </c>
-      <c r="H51" t="s">
+      <c r="C51" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>160632</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v>鹏华酒A</v>
+      </c>
+      <c r="G51" t="s">
+        <v>236</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="4"/>
+        <v>鹏华酒A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>007802</v>
@@ -2591,11 +3538,26 @@
         <f t="shared" si="1"/>
         <v>兴全合泰混合A</v>
       </c>
-      <c r="H52" t="s">
+      <c r="C52" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>160633</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v>鹏华券商A</v>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="4"/>
+        <v>鹏华券商A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>163402</v>
@@ -2604,11 +3566,26 @@
         <f t="shared" si="1"/>
         <v>兴全趋势投资混合(LOF</v>
       </c>
-      <c r="H53" t="s">
+      <c r="C53" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v>161028</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v>富国中证新能源汽车指数(</v>
+      </c>
+      <c r="G53" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="4"/>
+        <v>富国中证新能源汽车指数(</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>163406</v>
@@ -2617,11 +3594,26 @@
         <f t="shared" si="1"/>
         <v>兴全合润混合(LOF)</v>
       </c>
-      <c r="H54" t="s">
+      <c r="C54" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v>161121</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v>易方达中证银行指数(LO</v>
+      </c>
+      <c r="G54" t="s">
+        <v>239</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="4"/>
+        <v>易方达中证银行指数(LO</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>163412</v>
@@ -2630,11 +3622,26 @@
         <f t="shared" si="1"/>
         <v>兴全轻资产混合(LOF)</v>
       </c>
-      <c r="H55" t="s">
+      <c r="C55" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v>160517</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v>博时中证银行指数(LOF</v>
+      </c>
+      <c r="G55" t="s">
+        <v>240</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="4"/>
+        <v>博时中证银行指数(LOF</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>340001</v>
@@ -2643,11 +3650,26 @@
         <f t="shared" si="1"/>
         <v>兴全可转债混合</v>
       </c>
-      <c r="H56" t="s">
+      <c r="C56" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E56" t="str">
+        <f t="shared" si="2"/>
+        <v>163001</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v>长信医疗保健混合(LOF</v>
+      </c>
+      <c r="G56" t="s">
+        <v>274</v>
+      </c>
+      <c r="H56" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>110011</v>
@@ -2656,11 +3678,26 @@
         <f t="shared" si="1"/>
         <v>易方达优质精选混合(QD</v>
       </c>
-      <c r="H57" t="s">
+      <c r="C57" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E57" t="str">
+        <f t="shared" si="2"/>
+        <v>163407</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v>兴全沪深300指数(LO</v>
+      </c>
+      <c r="G57" t="s">
+        <v>243</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="4"/>
+        <v>兴全沪深300指数(LO</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>001603</v>
@@ -2669,11 +3706,26 @@
         <f t="shared" si="1"/>
         <v>易方达安盈回报混合</v>
       </c>
-      <c r="H58" t="s">
+      <c r="C58" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E58" t="str">
+        <f t="shared" si="2"/>
+        <v>162216</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v>泰达中证500指数增强(</v>
+      </c>
+      <c r="G58" t="s">
+        <v>244</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="4"/>
+        <v>泰达中证500指数增强(</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>501053</v>
@@ -2682,11 +3734,26 @@
         <f t="shared" si="1"/>
         <v>东方红目标优选定开混合</v>
       </c>
-      <c r="H59" t="s">
+      <c r="C59" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E59" t="str">
+        <f t="shared" si="2"/>
+        <v>000934</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v>国富大中华精选混合</v>
+      </c>
+      <c r="G59" t="s">
+        <v>247</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="4"/>
+        <v>国富大中华精选混合</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>169106</v>
@@ -2695,11 +3762,26 @@
         <f t="shared" si="1"/>
         <v>东方红创新优选定开混合</v>
       </c>
-      <c r="H60" t="s">
+      <c r="C60" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E60" t="str">
+        <f t="shared" si="2"/>
+        <v>100061</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v>富国中国中小盘混合(QD</v>
+      </c>
+      <c r="G60" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="4"/>
+        <v>富国中国中小盘混合(QD</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>001406</v>
@@ -2708,11 +3790,26 @@
         <f t="shared" si="1"/>
         <v>东方红策略精选混合C</v>
       </c>
-      <c r="H61" t="s">
+      <c r="C61" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E61" t="str">
+        <f t="shared" si="2"/>
+        <v>515950</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v>富国中证医药50ETF</v>
+      </c>
+      <c r="G61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H61" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>001182</v>
@@ -2721,11 +3818,26 @@
         <f t="shared" si="1"/>
         <v>易方达安心回馈混合</v>
       </c>
-      <c r="H62" t="s">
+      <c r="C62" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E62" t="str">
+        <f t="shared" si="2"/>
+        <v>561310</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v>国泰中证消费电子主题ET</v>
+      </c>
+      <c r="G62" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>110027</v>
@@ -2734,11 +3846,26 @@
         <f t="shared" si="1"/>
         <v>易方达安心回报债券A</v>
       </c>
-      <c r="H63" t="s">
+      <c r="C63" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>512520</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="3"/>
+        <v>华泰MSCI中国A股国际</v>
+      </c>
+      <c r="G63" t="s">
+        <v>277</v>
+      </c>
+      <c r="H63" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>000171</v>
@@ -2747,11 +3874,11 @@
         <f t="shared" si="1"/>
         <v>易方达裕丰回报债券</v>
       </c>
-      <c r="H64" t="s">
+      <c r="C64" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>161115</v>
@@ -2760,11 +3887,11 @@
         <f t="shared" si="1"/>
         <v>易方达岁丰添利债券(LO</v>
       </c>
-      <c r="H65" t="s">
+      <c r="C65" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>007916</v>
@@ -2773,268 +3900,348 @@
         <f t="shared" si="1"/>
         <v>财通资管鸿福短债C</v>
       </c>
-      <c r="H66" t="s">
+      <c r="C66" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A86" si="2">LEFT(H67,6)</f>
+        <f t="shared" ref="A67:A86" si="5">LEFT(C67,6)</f>
         <v>161015</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B86" si="3">RIGHT(H67,LEN(H67)-6)</f>
+        <f t="shared" ref="B67:B86" si="6">RIGHT(C67,LEN(C67)-6)</f>
         <v>富国天盈债券(LOF)C</v>
       </c>
-      <c r="H67" t="s">
+      <c r="C67" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>161014</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>富国汇利回报两年定期开放</v>
       </c>
-      <c r="H68" t="s">
+      <c r="C68" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160618</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>鹏华丰泽债券(LOF)</v>
       </c>
-      <c r="H69" t="s">
+      <c r="C69" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>161911</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>万家强化收益定开债</v>
       </c>
-      <c r="H70" t="s">
+      <c r="C70" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>008383</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>招商安心收益债券A</v>
       </c>
-      <c r="H71" t="s">
+      <c r="C71" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>217022</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>招商产业债券A</v>
       </c>
-      <c r="H72" t="s">
+      <c r="C72" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>161716</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>招商双债增强债券(LOF</v>
       </c>
-      <c r="H73" t="s">
+      <c r="C73" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160632</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>鹏华酒A</v>
       </c>
-      <c r="H74" t="s">
+      <c r="C74" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160633</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>鹏华券商A</v>
       </c>
-      <c r="H75" t="s">
+      <c r="C75" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>161028</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>富国中证新能源汽车指数(</v>
       </c>
-      <c r="H76" t="s">
+      <c r="C76" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>161121</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>易方达中证银行指数(LO</v>
       </c>
-      <c r="H77" t="s">
+      <c r="C77" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160517</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>博时中证银行指数(LOF</v>
       </c>
-      <c r="H78" t="s">
+      <c r="C78" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>161723</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>招商中证银行指数A</v>
       </c>
-      <c r="H79" t="s">
+      <c r="C79" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>110003</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>易方达上证50增强A</v>
       </c>
-      <c r="H80" t="s">
+      <c r="C80" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>163407</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>兴全沪深300指数(LO</v>
       </c>
-      <c r="H81" t="s">
+      <c r="C81" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>162216</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>泰达中证500指数增强(</v>
       </c>
-      <c r="H82" t="s">
+      <c r="C82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100061</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>富国中国中小盘混合(QD</v>
       </c>
-      <c r="H83" t="s">
+      <c r="C83" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>262001</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>景顺长城大中华混合(QD</v>
       </c>
-      <c r="H84" t="s">
+      <c r="C84" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>000934</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>国富大中华精选混合</v>
       </c>
-      <c r="H85" t="s">
+      <c r="C85" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160125</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>南方香港优选股票</v>
       </c>
-      <c r="H86" t="s">
+      <c r="C86" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>279</v>
+      </c>
+      <c r="B89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>281</v>
+      </c>
+      <c r="B90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>282</v>
+      </c>
+      <c r="B91" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>284</v>
+      </c>
+      <c r="B93" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>285</v>
+      </c>
+      <c r="B94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>286</v>
+      </c>
+      <c r="B95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/final_data/query_db/my_fund_raw.xlsx
+++ b/final_data/query_db/my_fund_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_codes\investment\final_data\query_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gin\project\investment\final_data\query_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D2BCF-17EA-478A-9A9A-D4A925AA26C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4680056-F2F4-4291-84A3-0E3804CA93A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="48" windowWidth="11124" windowHeight="15828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sel" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="264">
   <si>
     <t>166020</t>
   </si>
@@ -160,30 +160,12 @@
     <t>安信价值发现两年定开混合</t>
   </si>
   <si>
-    <t>001500</t>
-  </si>
-  <si>
-    <t>泓德远见回报混合</t>
-  </si>
-  <si>
     <t>501071</t>
   </si>
   <si>
     <t>泓德三年封闭丰泽混合</t>
   </si>
   <si>
-    <t>006259</t>
-  </si>
-  <si>
-    <t>汇添富红利增长混合A</t>
-  </si>
-  <si>
-    <t>519069</t>
-  </si>
-  <si>
-    <t>汇添富价值精选混合A</t>
-  </si>
-  <si>
     <t>161005</t>
   </si>
   <si>
@@ -208,18 +190,6 @@
     <t>国泰金鹿混合</t>
   </si>
   <si>
-    <t>003940</t>
-  </si>
-  <si>
-    <t>银华盛世精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>180031</t>
-  </si>
-  <si>
-    <t>银华中小盘混合</t>
-  </si>
-  <si>
     <t>002307</t>
   </si>
   <si>
@@ -274,12 +244,6 @@
     <t>景顺长城鼎益混合(LOF</t>
   </si>
   <si>
-    <t>202023</t>
-  </si>
-  <si>
-    <t>南方优选成长混合A</t>
-  </si>
-  <si>
     <t>160133</t>
   </si>
   <si>
@@ -298,18 +262,6 @@
     <t>嘉实产业优选混合(LOF</t>
   </si>
   <si>
-    <t>000136</t>
-  </si>
-  <si>
-    <t>民生加银策略精选混合A</t>
-  </si>
-  <si>
-    <t>006058</t>
-  </si>
-  <si>
-    <t>民生加银新兴成长混合</t>
-  </si>
-  <si>
     <t>040035</t>
   </si>
   <si>
@@ -334,36 +286,12 @@
     <t>兴全合泰混合A</t>
   </si>
   <si>
-    <t>163402</t>
-  </si>
-  <si>
-    <t>兴全趋势投资混合(LOF</t>
-  </si>
-  <si>
     <t>163406</t>
   </si>
   <si>
     <t>兴全合润混合(LOF)</t>
   </si>
   <si>
-    <t>163412</t>
-  </si>
-  <si>
-    <t>兴全轻资产混合(LOF)</t>
-  </si>
-  <si>
-    <t>340001</t>
-  </si>
-  <si>
-    <t>兴全可转债混合</t>
-  </si>
-  <si>
-    <t>110011</t>
-  </si>
-  <si>
-    <t>易方达优质精选混合(QD</t>
-  </si>
-  <si>
     <t>001603</t>
   </si>
   <si>
@@ -382,12 +310,6 @@
     <t>东方红创新优选定开混合</t>
   </si>
   <si>
-    <t>001406</t>
-  </si>
-  <si>
-    <t>东方红策略精选混合C</t>
-  </si>
-  <si>
     <t>001182</t>
   </si>
   <si>
@@ -406,12 +328,6 @@
     <t>易方达裕丰回报债券</t>
   </si>
   <si>
-    <t>007916</t>
-  </si>
-  <si>
-    <t>财通资管鸿福短债C</t>
-  </si>
-  <si>
     <t>161911</t>
   </si>
   <si>
@@ -506,12 +422,6 @@
   </si>
   <si>
     <t>国富大中华精选混合</t>
-  </si>
-  <si>
-    <t>160125</t>
-  </si>
-  <si>
-    <t>南方香港优选股票</t>
   </si>
   <si>
     <t>富国天盈债券(LOF)C</t>
@@ -963,74 +873,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1050,7 +892,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1305,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D857D398-D0B3-40C7-B0D8-18E05D0C5AEB}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:B96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1319,10 +1161,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,18 +1465,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,18 +1513,18 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,146 +1569,146 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,202 +1729,82 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>160</v>
-      </c>
-      <c r="B86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>279</v>
-      </c>
-      <c r="B87" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>281</v>
-      </c>
-      <c r="B88" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>282</v>
-      </c>
-      <c r="B89" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>283</v>
-      </c>
-      <c r="B90" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>284</v>
-      </c>
-      <c r="B91" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>286</v>
-      </c>
-      <c r="B93" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>287</v>
-      </c>
-      <c r="B94" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>289</v>
-      </c>
-      <c r="B95" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>291</v>
-      </c>
-      <c r="B96" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2111,22 +1833,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2139,7 +1861,7 @@
         <v>中欧成长优选混合A</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E2" t="str">
         <f>LEFT(G2,6)</f>
@@ -2150,7 +1872,7 @@
         <v>国富恒瑞债券A</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="H2" t="e">
         <f>VLOOKUP(E2,A$2:B$86,2,0)</f>
@@ -2167,7 +1889,7 @@
         <v>中欧价值智选混合A</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E63" si="2">LEFT(G3,6)</f>
@@ -2178,7 +1900,7 @@
         <v>万家新兴蓝筹灵活配置混合</v>
       </c>
       <c r="G3" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="H3" t="e">
         <f t="shared" ref="H3:H63" si="4">VLOOKUP(E3,A$2:B$86,2,0)</f>
@@ -2195,7 +1917,7 @@
         <v>中欧新动力混合(LOF)</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
@@ -2206,7 +1928,7 @@
         <v>万家品质生活混合A</v>
       </c>
       <c r="G4" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" si="4"/>
@@ -2223,7 +1945,7 @@
         <v>中欧养老产业混合A</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="2"/>
@@ -2234,7 +1956,7 @@
         <v>西部利得成长精选混合</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="H5" t="e">
         <f t="shared" si="4"/>
@@ -2251,7 +1973,7 @@
         <v>中欧数据挖掘混合A</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
@@ -2262,7 +1984,7 @@
         <v>博时裕隆灵活配置混合A</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="H6" t="e">
         <f t="shared" si="4"/>
@@ -2279,7 +2001,7 @@
         <v>中欧行业成长混合(LOF</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
@@ -2290,7 +2012,7 @@
         <v>中欧养老产业混合A</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="4"/>
@@ -2307,7 +2029,7 @@
         <v>中欧新蓝筹混合A</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="2"/>
@@ -2318,7 +2040,7 @@
         <v>中欧数据挖掘多因子混合A</v>
       </c>
       <c r="G8" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="4"/>
@@ -2335,7 +2057,7 @@
         <v>中欧新趋势混合A</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
@@ -2346,7 +2068,7 @@
         <v>中欧行业成长混合(LOF</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="4"/>
@@ -2363,7 +2085,7 @@
         <v>中欧精选定期开放混合A</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
@@ -2374,7 +2096,7 @@
         <v>中欧新趋势混合A</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="4"/>
@@ -2391,7 +2113,7 @@
         <v>中欧恒利三年定期开放混合</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
@@ -2402,7 +2124,7 @@
         <v>中欧恒利三年定期开放混合</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="4"/>
@@ -2419,7 +2141,7 @@
         <v>中欧价值发现混合A</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
@@ -2430,7 +2152,7 @@
         <v>中欧价值发现混合A</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="4"/>
@@ -2447,7 +2169,7 @@
         <v>广发小盘成长混合(LOF</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
@@ -2458,7 +2180,7 @@
         <v>广发小盘成长混合(LOF</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="4"/>
@@ -2475,7 +2197,7 @@
         <v>广发睿毅领先混合A</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
@@ -2486,7 +2208,7 @@
         <v>广发多策略混合</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="4"/>
@@ -2503,7 +2225,7 @@
         <v>广发多策略混合</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
@@ -2514,7 +2236,7 @@
         <v>广发逆向策略混合A</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="4"/>
@@ -2531,7 +2253,7 @@
         <v>广发优企精选混合A</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
@@ -2542,7 +2264,7 @@
         <v>交银瑞丰混合(LOF)</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="4"/>
@@ -2559,7 +2281,7 @@
         <v>广发逆向策略混合A</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
@@ -2570,7 +2292,7 @@
         <v>万家社会责任18个月定开</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="4"/>
@@ -2587,7 +2309,7 @@
         <v>交银精选混合</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
@@ -2598,7 +2320,7 @@
         <v>富国天惠成长混合A/B(</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="4"/>
@@ -2615,7 +2337,7 @@
         <v>交银新成长混合</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
@@ -2626,7 +2348,7 @@
         <v>安信价值发现两年定开混合</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="4"/>
@@ -2643,7 +2365,7 @@
         <v>交银瑞丰三年封闭混合</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
@@ -2654,7 +2376,7 @@
         <v>泓德丰泽混合(LOF)</v>
       </c>
       <c r="G20" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="4"/>
@@ -2671,7 +2393,7 @@
         <v>交银优势行业混合</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
@@ -2682,7 +2404,7 @@
         <v>国泰聚信价值优势混合A</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="4"/>
@@ -2699,7 +2421,7 @@
         <v>万家社会责任18个月定开</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
@@ -2710,7 +2432,7 @@
         <v>国泰金鹿混合</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="4"/>
@@ -2727,7 +2449,7 @@
         <v>安信价值发现两年定开混合</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
@@ -2738,7 +2460,7 @@
         <v>银华鑫盛灵活配置混合(L</v>
       </c>
       <c r="G23" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="H23" t="e">
         <f t="shared" si="4"/>
@@ -2755,7 +2477,7 @@
         <v>泓德远见回报混合</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
@@ -2766,7 +2488,7 @@
         <v>银华多元视野灵活配置混合</v>
       </c>
       <c r="G24" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="4"/>
@@ -2783,7 +2505,7 @@
         <v>泓德三年封闭丰泽混合</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
@@ -2794,7 +2516,7 @@
         <v>民生加银新兴成长混合</v>
       </c>
       <c r="G25" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="4"/>
@@ -2811,7 +2533,7 @@
         <v>汇添富红利增长混合A</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -2822,7 +2544,7 @@
         <v>国富研究精选混合</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="4"/>
@@ -2839,7 +2561,7 @@
         <v>汇添富价值精选混合A</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -2850,7 +2572,7 @@
         <v>国富中小盘股票</v>
       </c>
       <c r="G27" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="4"/>
@@ -2867,7 +2589,7 @@
         <v>富国天惠成长混合A/B(</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
@@ -2878,7 +2600,7 @@
         <v>招商安博灵活配置混合A</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="4"/>
@@ -2895,7 +2617,7 @@
         <v>富国通胀通缩主题轮动混合</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
@@ -2906,7 +2628,7 @@
         <v>鹏华弘嘉混合A类</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="4"/>
@@ -2923,7 +2645,7 @@
         <v>国泰聚信价值优势混合A</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="2"/>
@@ -2934,7 +2656,7 @@
         <v>华宝资源优选混合A</v>
       </c>
       <c r="G30" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="4"/>
@@ -2951,7 +2673,7 @@
         <v>国泰金鹿混合</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
@@ -2962,7 +2684,7 @@
         <v>南方天元新产业股票(LO</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="4"/>
@@ -2979,7 +2701,7 @@
         <v>银华盛世精选灵活配置混合</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
@@ -2990,7 +2712,7 @@
         <v>景顺长城鼎益混合(LOF</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="4"/>
@@ -3007,7 +2729,7 @@
         <v>银华中小盘混合</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
@@ -3018,7 +2740,7 @@
         <v>工银新蓝筹股票A</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="4"/>
@@ -3035,7 +2757,7 @@
         <v>银华多元视野灵活配置混合</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -3046,7 +2768,7 @@
         <v>财通多策略福鑫定开混合</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="4"/>
@@ -3063,7 +2785,7 @@
         <v>国富研究精选混合</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -3074,7 +2796,7 @@
         <v>兴全合泰混合A</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="4"/>
@@ -3091,7 +2813,7 @@
         <v>国富中国收益混合</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -3102,7 +2824,7 @@
         <v>兴全合润混合(LOF)</v>
       </c>
       <c r="G36" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="4"/>
@@ -3119,7 +2841,7 @@
         <v>国富中小盘股票</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
@@ -3130,7 +2852,7 @@
         <v>兴全轻资产混合(LOF)</v>
       </c>
       <c r="G37" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="4"/>
@@ -3147,7 +2869,7 @@
         <v>招商安博灵活配置混合A</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -3158,7 +2880,7 @@
         <v>易方达安盈回报混合</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="4"/>
@@ -3175,7 +2897,7 @@
         <v>鹏华弘嘉混合A类</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -3186,7 +2908,7 @@
         <v>东方红目标优选定开混合</v>
       </c>
       <c r="G39" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="4"/>
@@ -3203,7 +2925,7 @@
         <v>大成产业升级股票(LOF</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -3214,7 +2936,7 @@
         <v>东方红创新优选定开混合</v>
       </c>
       <c r="G40" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="4"/>
@@ -3231,7 +2953,7 @@
         <v>华宝资源优选混合A</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -3242,7 +2964,7 @@
         <v>易方达裕丰回报债券A</v>
       </c>
       <c r="G41" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="4"/>
@@ -3259,7 +2981,7 @@
         <v>景顺长城鼎益混合(LOF</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
@@ -3270,7 +2992,7 @@
         <v>易方达岁丰添利债券(LO</v>
       </c>
       <c r="G42" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="4"/>
@@ -3287,7 +3009,7 @@
         <v>南方优选成长混合A</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
@@ -3298,7 +3020,7 @@
         <v>富国天盈债券(LOF)C</v>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="4"/>
@@ -3315,7 +3037,7 @@
         <v>南方天元新产业股票(LO</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
@@ -3326,7 +3048,7 @@
         <v>富国汇利回报两年定期开放</v>
       </c>
       <c r="G44" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="4"/>
@@ -3343,7 +3065,7 @@
         <v>嘉实产业优选混合(LOF</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
@@ -3354,7 +3076,7 @@
         <v>鹏华丰泽债券(LOF)</v>
       </c>
       <c r="G45" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="4"/>
@@ -3371,7 +3093,7 @@
         <v>嘉实价值精选股票</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -3382,7 +3104,7 @@
         <v>万家强化收益定开债</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="4"/>
@@ -3399,7 +3121,7 @@
         <v>民生加银策略精选混合A</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
@@ -3410,7 +3132,7 @@
         <v>招商安心收益债券A</v>
       </c>
       <c r="G47" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="4"/>
@@ -3427,7 +3149,7 @@
         <v>民生加银新兴成长混合</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
@@ -3438,7 +3160,7 @@
         <v>招商产业债券A</v>
       </c>
       <c r="G48" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="4"/>
@@ -3455,7 +3177,7 @@
         <v>华安逆向策略混合A</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
@@ -3466,7 +3188,7 @@
         <v>招商双债增强债券(LOF</v>
       </c>
       <c r="G49" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="4"/>
@@ -3483,7 +3205,7 @@
         <v>工银新蓝筹股票A</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
@@ -3494,7 +3216,7 @@
         <v>财通资管鸿福短债C</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="4"/>
@@ -3511,7 +3233,7 @@
         <v>财通多策略福鑫定开混合</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
@@ -3522,7 +3244,7 @@
         <v>鹏华酒A</v>
       </c>
       <c r="G51" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="4"/>
@@ -3539,7 +3261,7 @@
         <v>兴全合泰混合A</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
@@ -3550,7 +3272,7 @@
         <v>鹏华券商A</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="4"/>
@@ -3567,7 +3289,7 @@
         <v>兴全趋势投资混合(LOF</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
@@ -3578,7 +3300,7 @@
         <v>富国中证新能源汽车指数(</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="4"/>
@@ -3595,7 +3317,7 @@
         <v>兴全合润混合(LOF)</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
@@ -3606,7 +3328,7 @@
         <v>易方达中证银行指数(LO</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="4"/>
@@ -3623,7 +3345,7 @@
         <v>兴全轻资产混合(LOF)</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
@@ -3634,7 +3356,7 @@
         <v>博时中证银行指数(LOF</v>
       </c>
       <c r="G55" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="4"/>
@@ -3651,7 +3373,7 @@
         <v>兴全可转债混合</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
@@ -3662,7 +3384,7 @@
         <v>长信医疗保健混合(LOF</v>
       </c>
       <c r="G56" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="H56" t="e">
         <f t="shared" si="4"/>
@@ -3679,7 +3401,7 @@
         <v>易方达优质精选混合(QD</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
@@ -3690,7 +3412,7 @@
         <v>兴全沪深300指数(LO</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="4"/>
@@ -3707,7 +3429,7 @@
         <v>易方达安盈回报混合</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
@@ -3718,7 +3440,7 @@
         <v>泰达中证500指数增强(</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="4"/>
@@ -3735,7 +3457,7 @@
         <v>东方红目标优选定开混合</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
@@ -3746,7 +3468,7 @@
         <v>国富大中华精选混合</v>
       </c>
       <c r="G59" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="4"/>
@@ -3763,7 +3485,7 @@
         <v>东方红创新优选定开混合</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
@@ -3774,7 +3496,7 @@
         <v>富国中国中小盘混合(QD</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="4"/>
@@ -3791,7 +3513,7 @@
         <v>东方红策略精选混合C</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
@@ -3802,7 +3524,7 @@
         <v>富国中证医药50ETF</v>
       </c>
       <c r="G61" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="H61" t="e">
         <f t="shared" si="4"/>
@@ -3819,7 +3541,7 @@
         <v>易方达安心回馈混合</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
@@ -3830,7 +3552,7 @@
         <v>国泰中证消费电子主题ET</v>
       </c>
       <c r="G62" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="H62" t="e">
         <f t="shared" si="4"/>
@@ -3847,7 +3569,7 @@
         <v>易方达安心回报债券A</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
@@ -3858,7 +3580,7 @@
         <v>华泰MSCI中国A股国际</v>
       </c>
       <c r="G63" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="H63" t="e">
         <f t="shared" si="4"/>
@@ -3875,7 +3597,7 @@
         <v>易方达裕丰回报债券</v>
       </c>
       <c r="C64" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3888,7 +3610,7 @@
         <v>易方达岁丰添利债券(LO</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,7 +3623,7 @@
         <v>财通资管鸿福短债C</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3914,7 +3636,7 @@
         <v>富国天盈债券(LOF)C</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3927,7 +3649,7 @@
         <v>富国汇利回报两年定期开放</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3940,7 +3662,7 @@
         <v>鹏华丰泽债券(LOF)</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3953,7 +3675,7 @@
         <v>万家强化收益定开债</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3966,7 +3688,7 @@
         <v>招商安心收益债券A</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3979,7 +3701,7 @@
         <v>招商产业债券A</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,7 +3714,7 @@
         <v>招商双债增强债券(LOF</v>
       </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4005,7 +3727,7 @@
         <v>鹏华酒A</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4018,7 +3740,7 @@
         <v>鹏华券商A</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4031,7 +3753,7 @@
         <v>富国中证新能源汽车指数(</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,7 +3766,7 @@
         <v>易方达中证银行指数(LO</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4057,7 +3779,7 @@
         <v>博时中证银行指数(LOF</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4070,7 +3792,7 @@
         <v>招商中证银行指数A</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4083,7 +3805,7 @@
         <v>易方达上证50增强A</v>
       </c>
       <c r="C80" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4096,7 +3818,7 @@
         <v>兴全沪深300指数(LO</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4109,7 +3831,7 @@
         <v>泰达中证500指数增强(</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4122,7 +3844,7 @@
         <v>富国中国中小盘混合(QD</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4135,7 +3857,7 @@
         <v>景顺长城大中华混合(QD</v>
       </c>
       <c r="C84" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -4148,7 +3870,7 @@
         <v>国富大中华精选混合</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,87 +3883,87 @@
         <v>南方香港优选股票</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B89" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B92" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/final_data/query_db/my_fund_raw.xlsx
+++ b/final_data/query_db/my_fund_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gin\project\investment\final_data\query_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_codes\investment\final_data\query_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4680056-F2F4-4291-84A3-0E3804CA93A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEAEEB1-3407-4175-8E07-E7B46EC2EA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8664" yWindow="48" windowWidth="11124" windowHeight="15828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sel" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="251">
   <si>
     <t>166020</t>
   </si>
@@ -64,24 +64,12 @@
     <t>中欧行业成长混合(LOF</t>
   </si>
   <si>
-    <t>166002</t>
-  </si>
-  <si>
-    <t>中欧新蓝筹混合A</t>
-  </si>
-  <si>
     <t>166001</t>
   </si>
   <si>
     <t>中欧新趋势混合A</t>
   </si>
   <si>
-    <t>001117</t>
-  </si>
-  <si>
-    <t>中欧精选定期开放混合A</t>
-  </si>
-  <si>
     <t>166024</t>
   </si>
   <si>
@@ -172,9 +160,6 @@
     <t>富国天惠成长混合A/B(</t>
   </si>
   <si>
-    <t>100039</t>
-  </si>
-  <si>
     <t>富国通胀通缩主题轮动混合</t>
   </si>
   <si>
@@ -256,12 +241,6 @@
     <t>嘉实价值精选股票</t>
   </si>
   <si>
-    <t>501189</t>
-  </si>
-  <si>
-    <t>嘉实产业优选混合(LOF</t>
-  </si>
-  <si>
     <t>040035</t>
   </si>
   <si>
@@ -310,18 +289,6 @@
     <t>东方红创新优选定开混合</t>
   </si>
   <si>
-    <t>001182</t>
-  </si>
-  <si>
-    <t>易方达安心回馈混合</t>
-  </si>
-  <si>
-    <t>110027</t>
-  </si>
-  <si>
-    <t>易方达安心回报债券A</t>
-  </si>
-  <si>
     <t>000171</t>
   </si>
   <si>
@@ -386,12 +353,6 @@
   </si>
   <si>
     <t>招商中证银行指数A</t>
-  </si>
-  <si>
-    <t>110003</t>
-  </si>
-  <si>
-    <t>易方达上证50增强A</t>
   </si>
   <si>
     <t>163407</t>
@@ -873,6 +834,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -892,7 +921,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1147,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D857D398-D0B3-40C7-B0D8-18E05D0C5AEB}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1161,10 +1190,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,490 +1350,442 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
+      <c r="A26">
+        <v>100039</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>254</v>
-      </c>
-      <c r="B76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>255</v>
-      </c>
-      <c r="B77" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>256</v>
-      </c>
-      <c r="B78" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>257</v>
-      </c>
-      <c r="B79" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>259</v>
-      </c>
-      <c r="B80" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>261</v>
-      </c>
-      <c r="B81" t="s">
-        <v>262</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1833,22 +1814,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1861,7 +1842,7 @@
         <v>中欧成长优选混合A</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E2" t="str">
         <f>LEFT(G2,6)</f>
@@ -1872,7 +1853,7 @@
         <v>国富恒瑞债券A</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H2" t="e">
         <f>VLOOKUP(E2,A$2:B$86,2,0)</f>
@@ -1889,7 +1870,7 @@
         <v>中欧价值智选混合A</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E63" si="2">LEFT(G3,6)</f>
@@ -1900,7 +1881,7 @@
         <v>万家新兴蓝筹灵活配置混合</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H3" t="e">
         <f t="shared" ref="H3:H63" si="4">VLOOKUP(E3,A$2:B$86,2,0)</f>
@@ -1917,7 +1898,7 @@
         <v>中欧新动力混合(LOF)</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
@@ -1928,7 +1909,7 @@
         <v>万家品质生活混合A</v>
       </c>
       <c r="G4" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" si="4"/>
@@ -1945,7 +1926,7 @@
         <v>中欧养老产业混合A</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="2"/>
@@ -1956,7 +1937,7 @@
         <v>西部利得成长精选混合</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="H5" t="e">
         <f t="shared" si="4"/>
@@ -1973,7 +1954,7 @@
         <v>中欧数据挖掘混合A</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
@@ -1984,7 +1965,7 @@
         <v>博时裕隆灵活配置混合A</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="H6" t="e">
         <f t="shared" si="4"/>
@@ -2001,7 +1982,7 @@
         <v>中欧行业成长混合(LOF</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
@@ -2012,7 +1993,7 @@
         <v>中欧养老产业混合A</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="4"/>
@@ -2029,7 +2010,7 @@
         <v>中欧新蓝筹混合A</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="2"/>
@@ -2040,7 +2021,7 @@
         <v>中欧数据挖掘多因子混合A</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="4"/>
@@ -2057,7 +2038,7 @@
         <v>中欧新趋势混合A</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
@@ -2068,7 +2049,7 @@
         <v>中欧行业成长混合(LOF</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="4"/>
@@ -2085,7 +2066,7 @@
         <v>中欧精选定期开放混合A</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
@@ -2096,7 +2077,7 @@
         <v>中欧新趋势混合A</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="4"/>
@@ -2113,7 +2094,7 @@
         <v>中欧恒利三年定期开放混合</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
@@ -2124,7 +2105,7 @@
         <v>中欧恒利三年定期开放混合</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="4"/>
@@ -2141,7 +2122,7 @@
         <v>中欧价值发现混合A</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
@@ -2152,7 +2133,7 @@
         <v>中欧价值发现混合A</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="4"/>
@@ -2169,7 +2150,7 @@
         <v>广发小盘成长混合(LOF</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
@@ -2180,7 +2161,7 @@
         <v>广发小盘成长混合(LOF</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="4"/>
@@ -2197,7 +2178,7 @@
         <v>广发睿毅领先混合A</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
@@ -2208,7 +2189,7 @@
         <v>广发多策略混合</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="4"/>
@@ -2225,7 +2206,7 @@
         <v>广发多策略混合</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
@@ -2236,7 +2217,7 @@
         <v>广发逆向策略混合A</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="4"/>
@@ -2253,7 +2234,7 @@
         <v>广发优企精选混合A</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
@@ -2264,7 +2245,7 @@
         <v>交银瑞丰混合(LOF)</v>
       </c>
       <c r="G16" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="4"/>
@@ -2281,7 +2262,7 @@
         <v>广发逆向策略混合A</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
@@ -2292,7 +2273,7 @@
         <v>万家社会责任18个月定开</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="4"/>
@@ -2309,7 +2290,7 @@
         <v>交银精选混合</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
@@ -2320,7 +2301,7 @@
         <v>富国天惠成长混合A/B(</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="4"/>
@@ -2337,7 +2318,7 @@
         <v>交银新成长混合</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
@@ -2348,7 +2329,7 @@
         <v>安信价值发现两年定开混合</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="4"/>
@@ -2365,7 +2346,7 @@
         <v>交银瑞丰三年封闭混合</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
@@ -2376,7 +2357,7 @@
         <v>泓德丰泽混合(LOF)</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="4"/>
@@ -2393,7 +2374,7 @@
         <v>交银优势行业混合</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
@@ -2404,7 +2385,7 @@
         <v>国泰聚信价值优势混合A</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="4"/>
@@ -2421,7 +2402,7 @@
         <v>万家社会责任18个月定开</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
@@ -2432,7 +2413,7 @@
         <v>国泰金鹿混合</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="4"/>
@@ -2449,7 +2430,7 @@
         <v>安信价值发现两年定开混合</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
@@ -2460,7 +2441,7 @@
         <v>银华鑫盛灵活配置混合(L</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H23" t="e">
         <f t="shared" si="4"/>
@@ -2477,7 +2458,7 @@
         <v>泓德远见回报混合</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
@@ -2488,7 +2469,7 @@
         <v>银华多元视野灵活配置混合</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="4"/>
@@ -2505,7 +2486,7 @@
         <v>泓德三年封闭丰泽混合</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
@@ -2516,7 +2497,7 @@
         <v>民生加银新兴成长混合</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="4"/>
@@ -2533,7 +2514,7 @@
         <v>汇添富红利增长混合A</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -2544,7 +2525,7 @@
         <v>国富研究精选混合</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="4"/>
@@ -2561,7 +2542,7 @@
         <v>汇添富价值精选混合A</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -2572,7 +2553,7 @@
         <v>国富中小盘股票</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="4"/>
@@ -2589,7 +2570,7 @@
         <v>富国天惠成长混合A/B(</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
@@ -2600,7 +2581,7 @@
         <v>招商安博灵活配置混合A</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="4"/>
@@ -2617,7 +2598,7 @@
         <v>富国通胀通缩主题轮动混合</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
@@ -2628,7 +2609,7 @@
         <v>鹏华弘嘉混合A类</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="4"/>
@@ -2645,7 +2626,7 @@
         <v>国泰聚信价值优势混合A</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="2"/>
@@ -2656,7 +2637,7 @@
         <v>华宝资源优选混合A</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="4"/>
@@ -2673,18 +2654,18 @@
         <v>国泰金鹿混合</v>
       </c>
       <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>160133</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>南方天元新产业股票(LO</v>
+      </c>
+      <c r="G31" t="s">
         <v>164</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v>160133</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="3"/>
-        <v>南方天元新产业股票(LO</v>
-      </c>
-      <c r="G31" t="s">
-        <v>177</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="4"/>
@@ -2701,7 +2682,7 @@
         <v>银华盛世精选灵活配置混合</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
@@ -2712,7 +2693,7 @@
         <v>景顺长城鼎益混合(LOF</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="4"/>
@@ -2729,7 +2710,7 @@
         <v>银华中小盘混合</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
@@ -2740,7 +2721,7 @@
         <v>工银新蓝筹股票A</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="4"/>
@@ -2757,7 +2738,7 @@
         <v>银华多元视野灵活配置混合</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -2768,7 +2749,7 @@
         <v>财通多策略福鑫定开混合</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="4"/>
@@ -2785,7 +2766,7 @@
         <v>国富研究精选混合</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -2796,7 +2777,7 @@
         <v>兴全合泰混合A</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="4"/>
@@ -2813,7 +2794,7 @@
         <v>国富中国收益混合</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -2824,7 +2805,7 @@
         <v>兴全合润混合(LOF)</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="4"/>
@@ -2841,7 +2822,7 @@
         <v>国富中小盘股票</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
@@ -2852,7 +2833,7 @@
         <v>兴全轻资产混合(LOF)</v>
       </c>
       <c r="G37" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="4"/>
@@ -2869,7 +2850,7 @@
         <v>招商安博灵活配置混合A</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -2880,7 +2861,7 @@
         <v>易方达安盈回报混合</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="4"/>
@@ -2897,7 +2878,7 @@
         <v>鹏华弘嘉混合A类</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -2908,7 +2889,7 @@
         <v>东方红目标优选定开混合</v>
       </c>
       <c r="G39" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="4"/>
@@ -2925,7 +2906,7 @@
         <v>大成产业升级股票(LOF</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -2936,7 +2917,7 @@
         <v>东方红创新优选定开混合</v>
       </c>
       <c r="G40" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="4"/>
@@ -2953,7 +2934,7 @@
         <v>华宝资源优选混合A</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -2964,7 +2945,7 @@
         <v>易方达裕丰回报债券A</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="4"/>
@@ -2981,7 +2962,7 @@
         <v>景顺长城鼎益混合(LOF</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
@@ -2992,7 +2973,7 @@
         <v>易方达岁丰添利债券(LO</v>
       </c>
       <c r="G42" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="4"/>
@@ -3009,7 +2990,7 @@
         <v>南方优选成长混合A</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
@@ -3020,7 +3001,7 @@
         <v>富国天盈债券(LOF)C</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="4"/>
@@ -3037,7 +3018,7 @@
         <v>南方天元新产业股票(LO</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
@@ -3048,7 +3029,7 @@
         <v>富国汇利回报两年定期开放</v>
       </c>
       <c r="G44" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="4"/>
@@ -3065,7 +3046,7 @@
         <v>嘉实产业优选混合(LOF</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
@@ -3076,7 +3057,7 @@
         <v>鹏华丰泽债券(LOF)</v>
       </c>
       <c r="G45" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="4"/>
@@ -3093,7 +3074,7 @@
         <v>嘉实价值精选股票</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -3104,7 +3085,7 @@
         <v>万家强化收益定开债</v>
       </c>
       <c r="G46" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="4"/>
@@ -3121,7 +3102,7 @@
         <v>民生加银策略精选混合A</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
@@ -3132,7 +3113,7 @@
         <v>招商安心收益债券A</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="4"/>
@@ -3149,7 +3130,7 @@
         <v>民生加银新兴成长混合</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
@@ -3160,7 +3141,7 @@
         <v>招商产业债券A</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="4"/>
@@ -3177,7 +3158,7 @@
         <v>华安逆向策略混合A</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
@@ -3188,7 +3169,7 @@
         <v>招商双债增强债券(LOF</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="4"/>
@@ -3205,7 +3186,7 @@
         <v>工银新蓝筹股票A</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
@@ -3216,7 +3197,7 @@
         <v>财通资管鸿福短债C</v>
       </c>
       <c r="G50" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="4"/>
@@ -3233,7 +3214,7 @@
         <v>财通多策略福鑫定开混合</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
@@ -3244,7 +3225,7 @@
         <v>鹏华酒A</v>
       </c>
       <c r="G51" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="4"/>
@@ -3261,7 +3242,7 @@
         <v>兴全合泰混合A</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
@@ -3272,7 +3253,7 @@
         <v>鹏华券商A</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="4"/>
@@ -3289,7 +3270,7 @@
         <v>兴全趋势投资混合(LOF</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
@@ -3300,7 +3281,7 @@
         <v>富国中证新能源汽车指数(</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="4"/>
@@ -3317,7 +3298,7 @@
         <v>兴全合润混合(LOF)</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
@@ -3328,7 +3309,7 @@
         <v>易方达中证银行指数(LO</v>
       </c>
       <c r="G54" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="4"/>
@@ -3345,7 +3326,7 @@
         <v>兴全轻资产混合(LOF)</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
@@ -3356,7 +3337,7 @@
         <v>博时中证银行指数(LOF</v>
       </c>
       <c r="G55" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="4"/>
@@ -3373,7 +3354,7 @@
         <v>兴全可转债混合</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
@@ -3384,7 +3365,7 @@
         <v>长信医疗保健混合(LOF</v>
       </c>
       <c r="G56" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H56" t="e">
         <f t="shared" si="4"/>
@@ -3401,7 +3382,7 @@
         <v>易方达优质精选混合(QD</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
@@ -3412,7 +3393,7 @@
         <v>兴全沪深300指数(LO</v>
       </c>
       <c r="G57" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="4"/>
@@ -3429,7 +3410,7 @@
         <v>易方达安盈回报混合</v>
       </c>
       <c r="C58" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
@@ -3440,7 +3421,7 @@
         <v>泰达中证500指数增强(</v>
       </c>
       <c r="G58" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="4"/>
@@ -3457,7 +3438,7 @@
         <v>东方红目标优选定开混合</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
@@ -3468,7 +3449,7 @@
         <v>国富大中华精选混合</v>
       </c>
       <c r="G59" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="4"/>
@@ -3485,7 +3466,7 @@
         <v>东方红创新优选定开混合</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
@@ -3496,7 +3477,7 @@
         <v>富国中国中小盘混合(QD</v>
       </c>
       <c r="G60" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="4"/>
@@ -3513,7 +3494,7 @@
         <v>东方红策略精选混合C</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
@@ -3524,7 +3505,7 @@
         <v>富国中证医药50ETF</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H61" t="e">
         <f t="shared" si="4"/>
@@ -3541,7 +3522,7 @@
         <v>易方达安心回馈混合</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
@@ -3552,7 +3533,7 @@
         <v>国泰中证消费电子主题ET</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H62" t="e">
         <f t="shared" si="4"/>
@@ -3569,7 +3550,7 @@
         <v>易方达安心回报债券A</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
@@ -3580,7 +3561,7 @@
         <v>华泰MSCI中国A股国际</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H63" t="e">
         <f t="shared" si="4"/>
@@ -3597,7 +3578,7 @@
         <v>易方达裕丰回报债券</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,7 +3591,7 @@
         <v>易方达岁丰添利债券(LO</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,7 +3604,7 @@
         <v>财通资管鸿福短债C</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,7 +3617,7 @@
         <v>富国天盈债券(LOF)C</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,7 +3630,7 @@
         <v>富国汇利回报两年定期开放</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3662,7 +3643,7 @@
         <v>鹏华丰泽债券(LOF)</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3675,7 +3656,7 @@
         <v>万家强化收益定开债</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3688,7 +3669,7 @@
         <v>招商安心收益债券A</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3701,7 +3682,7 @@
         <v>招商产业债券A</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,7 +3695,7 @@
         <v>招商双债增强债券(LOF</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3727,7 +3708,7 @@
         <v>鹏华酒A</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3740,7 +3721,7 @@
         <v>鹏华券商A</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,7 +3734,7 @@
         <v>富国中证新能源汽车指数(</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,7 +3747,7 @@
         <v>易方达中证银行指数(LO</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,7 +3760,7 @@
         <v>博时中证银行指数(LOF</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3792,7 +3773,7 @@
         <v>招商中证银行指数A</v>
       </c>
       <c r="C79" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,7 +3786,7 @@
         <v>易方达上证50增强A</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3818,7 +3799,7 @@
         <v>兴全沪深300指数(LO</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3831,7 +3812,7 @@
         <v>泰达中证500指数增强(</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3844,7 +3825,7 @@
         <v>富国中国中小盘混合(QD</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,7 +3838,7 @@
         <v>景顺长城大中华混合(QD</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,7 +3851,7 @@
         <v>国富大中华精选混合</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3883,87 +3864,87 @@
         <v>南方香港优选股票</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B94" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B97" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/final_data/query_db/my_fund_raw.xlsx
+++ b/final_data/query_db/my_fund_raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_codes\investment\final_data\query_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gin\project\investment\final_data\query_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEAEEB1-3407-4175-8E07-E7B46EC2EA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8AB88-E323-49FE-8E75-00F3EB3DB130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="245">
   <si>
     <t>166020</t>
   </si>
@@ -241,12 +241,6 @@
     <t>嘉实价值精选股票</t>
   </si>
   <si>
-    <t>040035</t>
-  </si>
-  <si>
-    <t>华安逆向策略混合A</t>
-  </si>
-  <si>
     <t>001651</t>
   </si>
   <si>
@@ -275,18 +269,6 @@
   </si>
   <si>
     <t>易方达安盈回报混合</t>
-  </si>
-  <si>
-    <t>501053</t>
-  </si>
-  <si>
-    <t>东方红目标优选定开混合</t>
-  </si>
-  <si>
-    <t>169106</t>
-  </si>
-  <si>
-    <t>东方红创新优选定开混合</t>
   </si>
   <si>
     <t>000171</t>
@@ -834,74 +816,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -921,7 +835,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1176,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D857D398-D0B3-40C7-B0D8-18E05D0C5AEB}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1190,10 +1104,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,18 +1264,18 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,26 +1360,26 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,218 +1456,218 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,30 +1676,6 @@
       </c>
       <c r="B72" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1814,22 +1704,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1842,7 +1732,7 @@
         <v>中欧成长优选混合A</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E2" t="str">
         <f>LEFT(G2,6)</f>
@@ -1853,7 +1743,7 @@
         <v>国富恒瑞债券A</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H2" t="e">
         <f>VLOOKUP(E2,A$2:B$86,2,0)</f>
@@ -1870,7 +1760,7 @@
         <v>中欧价值智选混合A</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E63" si="2">LEFT(G3,6)</f>
@@ -1881,7 +1771,7 @@
         <v>万家新兴蓝筹灵活配置混合</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H3" t="e">
         <f t="shared" ref="H3:H63" si="4">VLOOKUP(E3,A$2:B$86,2,0)</f>
@@ -1898,7 +1788,7 @@
         <v>中欧新动力混合(LOF)</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
@@ -1909,7 +1799,7 @@
         <v>万家品质生活混合A</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" si="4"/>
@@ -1926,7 +1816,7 @@
         <v>中欧养老产业混合A</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="2"/>
@@ -1937,7 +1827,7 @@
         <v>西部利得成长精选混合</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H5" t="e">
         <f t="shared" si="4"/>
@@ -1954,7 +1844,7 @@
         <v>中欧数据挖掘混合A</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
@@ -1965,7 +1855,7 @@
         <v>博时裕隆灵活配置混合A</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H6" t="e">
         <f t="shared" si="4"/>
@@ -1982,7 +1872,7 @@
         <v>中欧行业成长混合(LOF</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
@@ -1993,7 +1883,7 @@
         <v>中欧养老产业混合A</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="4"/>
@@ -2010,7 +1900,7 @@
         <v>中欧新蓝筹混合A</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="2"/>
@@ -2021,7 +1911,7 @@
         <v>中欧数据挖掘多因子混合A</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="4"/>
@@ -2038,7 +1928,7 @@
         <v>中欧新趋势混合A</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
@@ -2049,7 +1939,7 @@
         <v>中欧行业成长混合(LOF</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="4"/>
@@ -2066,7 +1956,7 @@
         <v>中欧精选定期开放混合A</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
@@ -2077,7 +1967,7 @@
         <v>中欧新趋势混合A</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="4"/>
@@ -2094,7 +1984,7 @@
         <v>中欧恒利三年定期开放混合</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
@@ -2105,7 +1995,7 @@
         <v>中欧恒利三年定期开放混合</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="4"/>
@@ -2122,7 +2012,7 @@
         <v>中欧价值发现混合A</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
@@ -2133,7 +2023,7 @@
         <v>中欧价值发现混合A</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="4"/>
@@ -2150,7 +2040,7 @@
         <v>广发小盘成长混合(LOF</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
@@ -2161,7 +2051,7 @@
         <v>广发小盘成长混合(LOF</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="4"/>
@@ -2178,7 +2068,7 @@
         <v>广发睿毅领先混合A</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
@@ -2189,7 +2079,7 @@
         <v>广发多策略混合</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="4"/>
@@ -2206,7 +2096,7 @@
         <v>广发多策略混合</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
@@ -2217,7 +2107,7 @@
         <v>广发逆向策略混合A</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="4"/>
@@ -2234,7 +2124,7 @@
         <v>广发优企精选混合A</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
@@ -2245,7 +2135,7 @@
         <v>交银瑞丰混合(LOF)</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="4"/>
@@ -2262,7 +2152,7 @@
         <v>广发逆向策略混合A</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
@@ -2273,7 +2163,7 @@
         <v>万家社会责任18个月定开</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="4"/>
@@ -2290,7 +2180,7 @@
         <v>交银精选混合</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
@@ -2301,7 +2191,7 @@
         <v>富国天惠成长混合A/B(</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="4"/>
@@ -2318,7 +2208,7 @@
         <v>交银新成长混合</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
@@ -2329,7 +2219,7 @@
         <v>安信价值发现两年定开混合</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="4"/>
@@ -2346,7 +2236,7 @@
         <v>交银瑞丰三年封闭混合</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
@@ -2357,7 +2247,7 @@
         <v>泓德丰泽混合(LOF)</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="4"/>
@@ -2374,7 +2264,7 @@
         <v>交银优势行业混合</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
@@ -2385,7 +2275,7 @@
         <v>国泰聚信价值优势混合A</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="4"/>
@@ -2402,7 +2292,7 @@
         <v>万家社会责任18个月定开</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
@@ -2413,7 +2303,7 @@
         <v>国泰金鹿混合</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="4"/>
@@ -2430,7 +2320,7 @@
         <v>安信价值发现两年定开混合</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
@@ -2441,7 +2331,7 @@
         <v>银华鑫盛灵活配置混合(L</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H23" t="e">
         <f t="shared" si="4"/>
@@ -2458,7 +2348,7 @@
         <v>泓德远见回报混合</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
@@ -2469,7 +2359,7 @@
         <v>银华多元视野灵活配置混合</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="4"/>
@@ -2486,7 +2376,7 @@
         <v>泓德三年封闭丰泽混合</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
@@ -2497,7 +2387,7 @@
         <v>民生加银新兴成长混合</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="4"/>
@@ -2514,7 +2404,7 @@
         <v>汇添富红利增长混合A</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -2525,7 +2415,7 @@
         <v>国富研究精选混合</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="4"/>
@@ -2542,7 +2432,7 @@
         <v>汇添富价值精选混合A</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -2553,7 +2443,7 @@
         <v>国富中小盘股票</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="4"/>
@@ -2570,7 +2460,7 @@
         <v>富国天惠成长混合A/B(</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
@@ -2581,7 +2471,7 @@
         <v>招商安博灵活配置混合A</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="4"/>
@@ -2598,7 +2488,7 @@
         <v>富国通胀通缩主题轮动混合</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
@@ -2609,7 +2499,7 @@
         <v>鹏华弘嘉混合A类</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="4"/>
@@ -2626,7 +2516,7 @@
         <v>国泰聚信价值优势混合A</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="2"/>
@@ -2637,7 +2527,7 @@
         <v>华宝资源优选混合A</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="4"/>
@@ -2654,7 +2544,7 @@
         <v>国泰金鹿混合</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
@@ -2665,7 +2555,7 @@
         <v>南方天元新产业股票(LO</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="4"/>
@@ -2682,7 +2572,7 @@
         <v>银华盛世精选灵活配置混合</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
@@ -2693,7 +2583,7 @@
         <v>景顺长城鼎益混合(LOF</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="4"/>
@@ -2710,7 +2600,7 @@
         <v>银华中小盘混合</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
@@ -2721,7 +2611,7 @@
         <v>工银新蓝筹股票A</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="4"/>
@@ -2738,7 +2628,7 @@
         <v>银华多元视野灵活配置混合</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -2749,7 +2639,7 @@
         <v>财通多策略福鑫定开混合</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="4"/>
@@ -2766,7 +2656,7 @@
         <v>国富研究精选混合</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -2777,7 +2667,7 @@
         <v>兴全合泰混合A</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="4"/>
@@ -2794,7 +2684,7 @@
         <v>国富中国收益混合</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -2805,7 +2695,7 @@
         <v>兴全合润混合(LOF)</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="4"/>
@@ -2822,7 +2712,7 @@
         <v>国富中小盘股票</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
@@ -2833,7 +2723,7 @@
         <v>兴全轻资产混合(LOF)</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="4"/>
@@ -2850,7 +2740,7 @@
         <v>招商安博灵活配置混合A</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -2861,7 +2751,7 @@
         <v>易方达安盈回报混合</v>
       </c>
       <c r="G38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="4"/>
@@ -2878,7 +2768,7 @@
         <v>鹏华弘嘉混合A类</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -2889,7 +2779,7 @@
         <v>东方红目标优选定开混合</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="4"/>
@@ -2906,7 +2796,7 @@
         <v>大成产业升级股票(LOF</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -2917,7 +2807,7 @@
         <v>东方红创新优选定开混合</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="4"/>
@@ -2934,7 +2824,7 @@
         <v>华宝资源优选混合A</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -2945,7 +2835,7 @@
         <v>易方达裕丰回报债券A</v>
       </c>
       <c r="G41" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="4"/>
@@ -2962,7 +2852,7 @@
         <v>景顺长城鼎益混合(LOF</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
@@ -2973,7 +2863,7 @@
         <v>易方达岁丰添利债券(LO</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="4"/>
@@ -2990,7 +2880,7 @@
         <v>南方优选成长混合A</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
@@ -3001,7 +2891,7 @@
         <v>富国天盈债券(LOF)C</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="4"/>
@@ -3018,7 +2908,7 @@
         <v>南方天元新产业股票(LO</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
@@ -3029,7 +2919,7 @@
         <v>富国汇利回报两年定期开放</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="4"/>
@@ -3046,7 +2936,7 @@
         <v>嘉实产业优选混合(LOF</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
@@ -3057,7 +2947,7 @@
         <v>鹏华丰泽债券(LOF)</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="4"/>
@@ -3074,7 +2964,7 @@
         <v>嘉实价值精选股票</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -3085,7 +2975,7 @@
         <v>万家强化收益定开债</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="4"/>
@@ -3102,7 +2992,7 @@
         <v>民生加银策略精选混合A</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
@@ -3113,7 +3003,7 @@
         <v>招商安心收益债券A</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="4"/>
@@ -3130,7 +3020,7 @@
         <v>民生加银新兴成长混合</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
@@ -3141,7 +3031,7 @@
         <v>招商产业债券A</v>
       </c>
       <c r="G48" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="4"/>
@@ -3158,7 +3048,7 @@
         <v>华安逆向策略混合A</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
@@ -3169,7 +3059,7 @@
         <v>招商双债增强债券(LOF</v>
       </c>
       <c r="G49" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="4"/>
@@ -3186,7 +3076,7 @@
         <v>工银新蓝筹股票A</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
@@ -3197,7 +3087,7 @@
         <v>财通资管鸿福短债C</v>
       </c>
       <c r="G50" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="4"/>
@@ -3214,7 +3104,7 @@
         <v>财通多策略福鑫定开混合</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
@@ -3225,7 +3115,7 @@
         <v>鹏华酒A</v>
       </c>
       <c r="G51" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="4"/>
@@ -3242,7 +3132,7 @@
         <v>兴全合泰混合A</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
@@ -3253,7 +3143,7 @@
         <v>鹏华券商A</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="4"/>
@@ -3270,7 +3160,7 @@
         <v>兴全趋势投资混合(LOF</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
@@ -3281,7 +3171,7 @@
         <v>富国中证新能源汽车指数(</v>
       </c>
       <c r="G53" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="4"/>
@@ -3298,7 +3188,7 @@
         <v>兴全合润混合(LOF)</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
@@ -3309,7 +3199,7 @@
         <v>易方达中证银行指数(LO</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="4"/>
@@ -3326,7 +3216,7 @@
         <v>兴全轻资产混合(LOF)</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
@@ -3337,7 +3227,7 @@
         <v>博时中证银行指数(LOF</v>
       </c>
       <c r="G55" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="4"/>
@@ -3354,7 +3244,7 @@
         <v>兴全可转债混合</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
@@ -3365,7 +3255,7 @@
         <v>长信医疗保健混合(LOF</v>
       </c>
       <c r="G56" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H56" t="e">
         <f t="shared" si="4"/>
@@ -3382,7 +3272,7 @@
         <v>易方达优质精选混合(QD</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
@@ -3393,7 +3283,7 @@
         <v>兴全沪深300指数(LO</v>
       </c>
       <c r="G57" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="4"/>
@@ -3410,7 +3300,7 @@
         <v>易方达安盈回报混合</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
@@ -3421,7 +3311,7 @@
         <v>泰达中证500指数增强(</v>
       </c>
       <c r="G58" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="4"/>
@@ -3438,7 +3328,7 @@
         <v>东方红目标优选定开混合</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
@@ -3449,7 +3339,7 @@
         <v>国富大中华精选混合</v>
       </c>
       <c r="G59" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="4"/>
@@ -3466,7 +3356,7 @@
         <v>东方红创新优选定开混合</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
@@ -3477,7 +3367,7 @@
         <v>富国中国中小盘混合(QD</v>
       </c>
       <c r="G60" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="4"/>
@@ -3494,7 +3384,7 @@
         <v>东方红策略精选混合C</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
@@ -3505,7 +3395,7 @@
         <v>富国中证医药50ETF</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H61" t="e">
         <f t="shared" si="4"/>
@@ -3522,7 +3412,7 @@
         <v>易方达安心回馈混合</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
@@ -3533,7 +3423,7 @@
         <v>国泰中证消费电子主题ET</v>
       </c>
       <c r="G62" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H62" t="e">
         <f t="shared" si="4"/>
@@ -3550,7 +3440,7 @@
         <v>易方达安心回报债券A</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
@@ -3561,7 +3451,7 @@
         <v>华泰MSCI中国A股国际</v>
       </c>
       <c r="G63" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H63" t="e">
         <f t="shared" si="4"/>
@@ -3578,7 +3468,7 @@
         <v>易方达裕丰回报债券</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3591,7 +3481,7 @@
         <v>易方达岁丰添利债券(LO</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,7 +3494,7 @@
         <v>财通资管鸿福短债C</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3617,7 +3507,7 @@
         <v>富国天盈债券(LOF)C</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3630,7 +3520,7 @@
         <v>富国汇利回报两年定期开放</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,7 +3533,7 @@
         <v>鹏华丰泽债券(LOF)</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3656,7 +3546,7 @@
         <v>万家强化收益定开债</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,7 +3559,7 @@
         <v>招商安心收益债券A</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3682,7 +3572,7 @@
         <v>招商产业债券A</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,7 +3585,7 @@
         <v>招商双债增强债券(LOF</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3708,7 +3598,7 @@
         <v>鹏华酒A</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,7 +3611,7 @@
         <v>鹏华券商A</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3734,7 +3624,7 @@
         <v>富国中证新能源汽车指数(</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,7 +3637,7 @@
         <v>易方达中证银行指数(LO</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,7 +3650,7 @@
         <v>博时中证银行指数(LOF</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3773,7 +3663,7 @@
         <v>招商中证银行指数A</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3786,7 +3676,7 @@
         <v>易方达上证50增强A</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3799,7 +3689,7 @@
         <v>兴全沪深300指数(LO</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,7 +3702,7 @@
         <v>泰达中证500指数增强(</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3825,7 +3715,7 @@
         <v>富国中国中小盘混合(QD</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,7 +3728,7 @@
         <v>景顺长城大中华混合(QD</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3851,7 +3741,7 @@
         <v>国富大中华精选混合</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3864,87 +3754,87 @@
         <v>南方香港优选股票</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
